--- a/mobi_client/mobi_client/mobi_config/no_limit_state_excel/015_天赋表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/no_limit_state_excel/015_天赋表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB28CAE-6804-48FB-AD13-3EEEC686ED51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B14B7B4-DC7C-4DD4-887C-7DED305D38DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26070" yWindow="0" windowWidth="13500" windowHeight="20835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28410" yWindow="390" windowWidth="13500" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RoleTalent|天赋表" sheetId="1" r:id="rId1"/>

--- a/mobi_client/mobi_client/mobi_config/no_limit_state_excel/015_天赋表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/no_limit_state_excel/015_天赋表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B14B7B4-DC7C-4DD4-887C-7DED305D38DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41F3D53-F996-488F-9026-5CD048DFBC7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28410" yWindow="390" windowWidth="13500" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RoleTalent|天赋表" sheetId="1" r:id="rId1"/>
@@ -247,7 +247,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -267,6 +267,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -579,7 +582,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -704,7 +707,7 @@
       <c r="I4" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -718,7 +721,7 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="7">
         <v>1</v>
       </c>
       <c r="H5" t="s">
@@ -727,7 +730,7 @@
       <c r="I5" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -741,7 +744,7 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="7">
         <v>1</v>
       </c>
       <c r="H6" t="s">
@@ -750,7 +753,7 @@
       <c r="I6" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -764,7 +767,7 @@
       <c r="D7" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="7">
         <v>1</v>
       </c>
       <c r="H7" t="s">
@@ -773,7 +776,7 @@
       <c r="I7" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -787,7 +790,7 @@
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="7">
         <v>2</v>
       </c>
       <c r="G8">
@@ -799,7 +802,7 @@
       <c r="I8" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -813,7 +816,7 @@
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="7" t="s">
         <v>28</v>
       </c>
       <c r="G9">
@@ -825,7 +828,7 @@
       <c r="I9" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -839,7 +842,7 @@
       <c r="D10" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="7">
         <v>5</v>
       </c>
       <c r="G10">
@@ -851,7 +854,7 @@
       <c r="I10" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -865,7 +868,7 @@
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="7">
         <v>6</v>
       </c>
       <c r="G11">
@@ -877,7 +880,7 @@
       <c r="I11" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -891,7 +894,7 @@
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="7">
         <v>8</v>
       </c>
       <c r="G12">
@@ -903,7 +906,7 @@
       <c r="I12" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -917,7 +920,7 @@
       <c r="D13" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="7">
         <v>8</v>
       </c>
       <c r="G13">
@@ -929,7 +932,7 @@
       <c r="I13" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -943,7 +946,7 @@
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="7">
         <v>9</v>
       </c>
       <c r="G14">
@@ -955,7 +958,7 @@
       <c r="I14" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -969,7 +972,7 @@
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="7">
         <v>10</v>
       </c>
       <c r="G15">
@@ -981,7 +984,7 @@
       <c r="I15" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1007,7 +1010,7 @@
       <c r="I16" t="s">
         <v>27</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1033,7 +1036,7 @@
       <c r="I17" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" s="7" t="s">
         <v>32</v>
       </c>
     </row>
